--- a/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.24.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_14_Common_alpha=0.24.xlsx
@@ -891,7 +891,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1087,7 +1087,7 @@
         <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1339,7 +1339,7 @@
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
         <v>7</v>
@@ -1395,7 +1395,7 @@
         <v>27</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -1423,7 +1423,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>9</v>
@@ -1521,7 +1521,7 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D48" t="s">
         <v>7</v>
@@ -1647,7 +1647,7 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D57" t="s">
         <v>9</v>
@@ -1927,7 +1927,7 @@
         <v>21</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D77" t="s">
         <v>9</v>
@@ -2123,7 +2123,7 @@
         <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -2165,7 +2165,7 @@
         <v>42</v>
       </c>
       <c r="C94" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D94" t="s">
         <v>9</v>
@@ -2417,7 +2417,7 @@
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2599,7 +2599,7 @@
         <v>151</v>
       </c>
       <c r="C125" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D125" t="s">
         <v>7</v>
@@ -2669,7 +2669,7 @@
         <v>21</v>
       </c>
       <c r="C130" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D130" t="s">
         <v>9</v>
